--- a/project/excel/mtg_ontology.xlsx
+++ b/project/excel/mtg_ontology.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -632,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +719,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>card_supertype</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
         </is>
       </c>
     </row>
@@ -859,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,6 +953,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -955,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1054,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1174,7 +1194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1278,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1403,7 +1428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,6 +1512,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1499,7 +1529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,6 +1613,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1662,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,10 +1783,15 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>rarity</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>power</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>toughness</t>
         </is>
@@ -1768,7 +1808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,6 +1892,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1864,7 +1909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,6 +1993,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2011,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,6 +2145,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2148,7 +2203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2232,6 +2287,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2367,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2451,6 +2511,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2463,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,6 +2612,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2595,7 +2665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2679,15 +2749,26 @@
           <t>card_supertype</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
     <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"black,blue,green,red,white,colorless"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"common,uncommon,rare,mythic"</formula1>
     </dataValidation>
     <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"black,blue,green,red,white,colorless"</formula1>
     </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"common,uncommon,rare,mythic"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2740,7 +2821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2824,6 +2905,11 @@
           <t>card_supertype</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2949,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3035,10 +3121,15 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>rarity</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>power</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>toughness</t>
         </is>
@@ -3055,7 +3146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3137,6 +3228,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>card_supertype</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rarity</t>
         </is>
       </c>
     </row>

--- a/project/excel/mtg_ontology.xlsx
+++ b/project/excel/mtg_ontology.xlsx
@@ -1542,7 +1542,7 @@
       <formula1>"beginning_phase,untap_step,upkeep_step,draw_step,main_phase,pre_combat_main_phase,post_combat_main_phase,combat_phase,beginning_of_combat_step,declare_attackers_step,declare_blockers_step,combat_damage_step,end_of_combat_step,ending_phase,cleanup_step,turn"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"you,owner,controller,opponent,opponents,players"</formula1>
+      <formula1>"you,active_player,non_active_player,defending_player,attacking_player,owner,controller,opponent,opponents,players"</formula1>
     </dataValidation>
     <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"before,after,during,next,previous,this,each"</formula1>
@@ -1551,7 +1551,7 @@
       <formula1>"beginning_phase,untap_step,upkeep_step,draw_step,main_phase,pre_combat_main_phase,post_combat_main_phase,combat_phase,beginning_of_combat_step,declare_attackers_step,declare_blockers_step,combat_damage_step,end_of_combat_step,ending_phase,cleanup_step,turn"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"you,owner,controller,opponent,opponents,players"</formula1>
+      <formula1>"you,active_player,non_active_player,defending_player,attacking_player,owner,controller,opponent,opponents,players"</formula1>
     </dataValidation>
     <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"before,after,during,next,previous,this,each"</formula1>
@@ -1837,13 +1837,13 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"discard,draw,sacrifice,exile,fight,deal_damage,cast,activate,place_creature,tap,untap,add_mana,control"</formula1>
+      <formula1>"discard,draw,sacrifice,exile,fight,destroy,deal_damage,cast,activate,play,tap,untap,add_mana,control"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"must,may,must_not,may_not"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"discard,draw,sacrifice,exile,fight,deal_damage,cast,activate,place_creature,tap,untap,add_mana,control"</formula1>
+      <formula1>"discard,draw,sacrifice,exile,fight,destroy,deal_damage,cast,activate,play,tap,untap,add_mana,control"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"must,may,must_not,may_not"</formula1>

--- a/project/excel/mtg_ontology.xlsx
+++ b/project/excel/mtg_ontology.xlsx
@@ -1,68 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="55" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ability" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AbilityCollection" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ActionSpecification" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ActivatedAbility" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Artifact" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Card" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CardCollection" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Condition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Cost" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Creature" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Enchantment" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Instant" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="KeywordAbility" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Land" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="LifeCost" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Mana" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="ManaCost" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="NamedThing" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Permanent" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Sorcery" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Specification" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Spell" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="StaticAbility" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Thing" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="TimeSpecification" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Token" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="TriggeredAbility" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="ValueSpecification" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Ability1" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="AbilityCollection1" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="ActionSpecification1" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="ActivatedAbility1" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Artifact1" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Card1" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="CardCollection1" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Condition1" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Cost1" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Creature1" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Enchantment1" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Instant1" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="KeywordAbility1" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Land1" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="LifeCost1" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Mana1" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="ManaCost1" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="NamedThing1" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Permanent1" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Sorcery1" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Specification2" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Spell1" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="StaticAbility1" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Thing2" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="TimeSpecification1" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Token1" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="TriggeredAbility1" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="ValueSpecification1" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbilityCollection" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActionSpecification" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActivatedAbility" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Artifact" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Card" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CardCollection" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cost" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Creature" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enchantment" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instant" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeywordAbility" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Land" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LifeCost" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mana" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ManaCost" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Permanent" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sorcery" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specification" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spell" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StaticAbility" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpecification" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Token" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TriggeredAbility" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueSpecification" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ability1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbilityCollection1" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActionSpecification1" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActivatedAbility1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Artifact1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Card1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CardCollection1" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition1" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cost1" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Creature1" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enchantment1" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instant1" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeywordAbility1" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Land1" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LifeCost1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mana1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ManaCost1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Permanent1" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sorcery1" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specification2" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spell1" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StaticAbility1" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing2" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpecification1" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Token1" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TriggeredAbility1" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueSpecification1" sheetId="56" state="visible" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,10 +590,15 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>power</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>toughness</t>
         </is>
@@ -610,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +699,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -706,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +800,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -848,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,6 +945,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>rarity</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,6 +1228,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1271,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1353,6 +1378,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>rarity</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,6 +1679,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>rarity</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
         </is>
       </c>
     </row>
@@ -1837,13 +1872,13 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"discard,draw,sacrifice,exile,fight,destroy,deal_damage,cast,activate,play,tap,untap,add_mana,control"</formula1>
+      <formula1>"discard,draw,sacrifice,exile,fight,destroy,deal_damage,cast,activate,attach,play,tap,untap,search,shuffle,reveal,scry,add_mana,control"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"must,may,must_not,may_not"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"discard,draw,sacrifice,exile,fight,destroy,deal_damage,cast,activate,play,tap,untap,add_mana,control"</formula1>
+      <formula1>"discard,draw,sacrifice,exile,fight,destroy,deal_damage,cast,activate,attach,play,tap,untap,search,shuffle,reveal,scry,add_mana,control"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"must,may,must_not,may_not"</formula1>
@@ -2002,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,6 +2121,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2098,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2182,6 +2222,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2317,7 +2362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,10 +2448,15 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>power</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>toughness</t>
         </is>
@@ -2423,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2507,6 +2557,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2565,7 +2620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,6 +2704,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2707,7 +2767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2791,6 +2851,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2967,7 +3032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3051,6 +3116,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3063,7 +3133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3147,6 +3217,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3200,7 +3275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3284,6 +3359,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3435,7 +3515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3519,6 +3599,11 @@
           <t>rarity</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3623,7 +3708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3705,6 +3790,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>rarity</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oracle_text</t>
         </is>
       </c>
     </row>

--- a/project/excel/mtg_ontology.xlsx
+++ b/project/excel/mtg_ontology.xlsx
@@ -1,84 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="71" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ability" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AbilityCollection" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ActionSpecification" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ActivatedAbility" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="AnyArtifact" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="AnyCreature" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="AnyEnchantment" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Artifact" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ArtifactToken" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Card" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="CardCollection" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Condition" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Cost" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Counter" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Creature" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="CreatureToken" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Enchantment" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="EnchantmentToken" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Instant" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="KeywordCounter" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Land" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="LifeCost" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Mana" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="ManaCost" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="NamedThing" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Permanent" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="PowerToughnessCounter" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Sorcery" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Specification" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Spell" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="StaticAbility" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Thing" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="TimeSpecification" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Token" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="TriggeredAbility" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="ValueSpecification" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Ability1" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="AbilityCollection1" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="ActionSpecification1" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="ActivatedAbility1" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="AnyArtifact1" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="AnyCreature1" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="AnyEnchantment1" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Artifact2" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="ArtifactToken1" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Card1" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="CardCollection1" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Condition1" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Cost1" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Counter1" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Creature2" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="CreatureToken1" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Enchantment2" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="EnchantmentToken1" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Instant1" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="KeywordCounter1" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Land1" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="LifeCost1" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="Mana1" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="ManaCost1" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="NamedThing1" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="Permanent1" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="PowerToughnessCounter1" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet name="Sorcery1" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="Specification2" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet name="Spell1" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="StaticAbility1" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet name="Thing2" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet name="TimeSpecification1" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet name="Token2" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet name="TriggeredAbility1" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet name="ValueSpecification1" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbilityCollection" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActionSpecification" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActivatedAbility" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnyArtifact" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnyCreature" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnyEnchantment" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Artifact" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ArtifactToken" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Card" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CardCollection" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cost" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Counter" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Creature" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CreatureToken" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enchantment" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnchantmentToken" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instant" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeywordCounter" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Land" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LifeCost" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mana" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ManaCost" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Permanent" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerToughnessCounter" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sorcery" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specification" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spell" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StaticAbility" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpecification" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Token" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TriggeredAbility" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueSpecification" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ability1" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbilityCollection1" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActionSpecification1" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActivatedAbility1" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnyArtifact1" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnyCreature1" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnyEnchantment1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Artifact2" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ArtifactToken1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Card1" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CardCollection1" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition1" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cost1" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Counter1" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Creature2" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CreatureToken1" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enchantment2" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnchantmentToken1" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instant1" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeywordCounter1" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Land1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LifeCost1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mana1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ManaCost1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Permanent1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerToughnessCounter1" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sorcery1" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specification2" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spell1" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StaticAbility1" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing2" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpecification1" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Token2" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TriggeredAbility1" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueSpecification1" sheetId="72" state="visible" r:id="rId72"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -905,20 +905,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1025,14 +1011,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1134,20 +1112,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1234,14 +1198,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1531,20 +1487,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4818,20 +4760,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"common,uncommon,rare,mythic"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4918,14 +4846,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"black,blue,green,red,white,colorless"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>